--- a/QuantLibXL/Data2/XLS/SEK/SEK_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_MainChecks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>ObjectID</t>
   </si>
@@ -815,22 +815,24 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 16:44:15</v>
+        <v>Updated at 09:28:42</v>
         <stp/>
-        <stp>{65429D61-FABF-48E8-8363-85D0EF861221}</stp>
-        <tr r="Q6" s="2"/>
+        <stp>{F884A349-5DBA-44A4-A4C8-EB715CB4E960}</stp>
+        <tr r="P6" s="2"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Updated at 09:31:05</v>
+        <stp/>
+        <stp>{2EE1AE43-4443-4FFE-A2FF-0DD99F948CDF}</stp>
+        <tr r="Q5" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 16:44:15</v>
+        <v>Updated at 09:23:51</v>
         <stp/>
-        <stp>{1CE8C1AD-683E-4DEA-AB9B-F0AEA2E6DFCC}</stp>
-        <tr r="P6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:04:22</v>
-        <stp/>
-        <stp>{43CC7531-A0FE-4D29-A1FB-913FD1A5604E}</stp>
-        <tr r="Q5" s="2"/>
+        <stp>{AB1AAB78-A1F2-45F3-877E-167AB99F36FC}</stp>
+        <tr r="Q6" s="2"/>
       </tp>
     </main>
   </volType>
@@ -1316,9 +1318,7 @@
       <c r="T2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="18">
-        <v>42040.69736111111</v>
-      </c>
+      <c r="U2" s="18"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1477,17 +1477,17 @@
         <v>FGBLc1</v>
       </c>
       <c r="L5" s="25">
-        <v>42069</v>
+        <v>42163</v>
       </c>
       <c r="M5" s="26">
-        <v>158.63999999999999</v>
+        <v>153.45000000000002</v>
       </c>
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="27" t="str">
         <f>_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
-        <v>Updated at 17:04:22</v>
+        <v>Updated at 09:31:05</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>13</v>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="U5" s="11" t="str">
         <f>_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
-        <v>1_52 / 1.5.0 / 1.5</v>
+        <v>1_57 / 1.6.0 / 1.6</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1548,25 +1548,25 @@
         <v>SEKAB3S10Y</v>
       </c>
       <c r="L6" s="22">
-        <v>42040</v>
+        <v>42137</v>
       </c>
       <c r="M6" s="30" t="str">
         <f>N6&amp;"/"&amp;O6</f>
-        <v>0.9825/1.0325</v>
+        <v>1.3525/1.4025</v>
       </c>
       <c r="N6" s="28">
-        <v>0.98249999999999993</v>
+        <v>1.3525</v>
       </c>
       <c r="O6" s="28">
-        <v>1.0325</v>
+        <v>1.4025000000000001</v>
       </c>
       <c r="P6" s="28" t="str">
         <f>_xll.RData(K6&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N6)</f>
-        <v>Updated at 16:44:15</v>
+        <v>Updated at 09:28:42</v>
       </c>
       <c r="Q6" s="29" t="str">
         <f>_xll.RData(K6&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L6)</f>
-        <v>Updated at 16:44:15</v>
+        <v>Updated at 09:23:51</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>13</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="U6" s="11">
         <f>_xll.ohRepositoryObjectCount(Trigger)</f>
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1750,11 +1750,11 @@
       </c>
       <c r="L9" s="57">
         <f>_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>42039</v>
+        <v>42136</v>
       </c>
       <c r="M9" s="58">
         <f>_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>5.5999999999999995E-4</v>
+        <v>-1.9400000000000001E-3</v>
       </c>
       <c r="N9" s="58"/>
       <c r="O9" s="58"/>
@@ -1816,19 +1816,19 @@
         <f>UPPER(Currency)&amp;"STD"</f>
         <v>SEKSTD</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="22" t="e">
         <f>_xll.qlTermStructureReferenceDate(K10,Trigger)</f>
-        <v>42041</v>
-      </c>
-      <c r="M10" s="23">
+        <v>#NUM!</v>
+      </c>
+      <c r="M10" s="23" t="e">
         <f>_xll.qlYieldTSDiscount(K10,L10)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="31" t="str">
-        <f>IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10))</f>
+        <f ca="1">IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10))</f>
         <v/>
       </c>
       <c r="R10" s="8" t="s">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="L11" s="22">
         <f>_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
-        <v>42044</v>
+        <v>42142</v>
       </c>
       <c r="M11" s="23">
         <f>_xll.qlYieldTSDiscount(K11,L11)</f>
@@ -1936,22 +1936,24 @@
         <f>UPPER(Currency)&amp;"1M"</f>
         <v>SEK1M</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="22" t="e">
         <f>_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
-        <v>42044</v>
-      </c>
-      <c r="M12" s="23">
+        <v>#NUM!</v>
+      </c>
+      <c r="M12" s="23" t="e">
         <f>_xll.qlYieldTSDiscount(K12,L12)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="32" t="str">
-        <f>IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
+        <f ca="1">IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
         <v/>
       </c>
-      <c r="R12" s="8"/>
+      <c r="R12" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -2002,19 +2004,19 @@
         <f>UPPER(Currency)&amp;"3M"</f>
         <v>SEK3M</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="22" t="e">
         <f>_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
-        <v>42044</v>
-      </c>
-      <c r="M13" s="23">
+        <v>#NUM!</v>
+      </c>
+      <c r="M13" s="23" t="e">
         <f>_xll.qlYieldTSDiscount(K13,L13)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="32" t="str">
-        <f>IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
+        <f ca="1">IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
         <v/>
       </c>
       <c r="R13" s="8" t="s">
@@ -2064,19 +2066,19 @@
         <f>UPPER(Currency)&amp;"6M"</f>
         <v>SEK6M</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="40" t="e">
         <f>_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
-        <v>42044</v>
-      </c>
-      <c r="M14" s="41">
+        <v>#NUM!</v>
+      </c>
+      <c r="M14" s="41" t="e">
         <f>_xll.qlYieldTSDiscount(K14,L14)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
       <c r="P14" s="41"/>
       <c r="Q14" s="42" t="str">
-        <f>IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
+        <f ca="1">IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
         <v/>
       </c>
       <c r="R14" s="8" t="s">
@@ -2148,11 +2150,11 @@
       </c>
       <c r="C16" s="33">
         <f t="array" ref="C16:C19">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B16:B19)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="array" ref="D16:D19">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
-        <v>-H5</v>
+        <v>-M5</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2193,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="34">
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="D17" s="8" t="str">
-        <v>-M5</v>
+        <v>-U5</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2237,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="34">
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="D18" s="8" t="str">
-        <v>-U5</v>
+        <v>-Z5</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2281,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="35">
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="D19" s="10" t="str">
-        <v>-Z5</v>
+        <v>-H6</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5474,7 +5476,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="CommandButton1">
+        <control shapeId="1026" r:id="rId4" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5494,12 +5496,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="CommandButton2">
+        <control shapeId="1025" r:id="rId6" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5519,7 +5521,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
